--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H2">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I2">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J2">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N2">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O2">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P2">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q2">
-        <v>2.765583941384222</v>
+        <v>2.4361186676</v>
       </c>
       <c r="R2">
-        <v>24.890255472458</v>
+        <v>21.9250680084</v>
       </c>
       <c r="S2">
-        <v>0.002058937749055596</v>
+        <v>0.001146815383076524</v>
       </c>
       <c r="T2">
-        <v>0.002058937749055596</v>
+        <v>0.001146815383076524</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H3">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I3">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J3">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.826363</v>
       </c>
       <c r="O3">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P3">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q3">
-        <v>0.8225165407676669</v>
+        <v>0.85464506515</v>
       </c>
       <c r="R3">
-        <v>7.402648866909001</v>
+        <v>7.69180558635</v>
       </c>
       <c r="S3">
-        <v>0.000612351818242604</v>
+        <v>0.0004023285568227457</v>
       </c>
       <c r="T3">
-        <v>0.000612351818242604</v>
+        <v>0.0004023285568227457</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H4">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I4">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J4">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N4">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O4">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P4">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q4">
-        <v>18.53716879555767</v>
+        <v>32.11304196375001</v>
       </c>
       <c r="R4">
-        <v>166.834519160019</v>
+        <v>289.01737767375</v>
       </c>
       <c r="S4">
-        <v>0.01380065743898049</v>
+        <v>0.01511737954772629</v>
       </c>
       <c r="T4">
-        <v>0.01380065743898049</v>
+        <v>0.01511737954772628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H5">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I5">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J5">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N5">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O5">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P5">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q5">
-        <v>1.259045612387</v>
+        <v>1.086713387683333</v>
       </c>
       <c r="R5">
-        <v>11.331410511483</v>
+        <v>9.78042048915</v>
       </c>
       <c r="S5">
-        <v>0.000937341477991417</v>
+        <v>0.0005115759123582561</v>
       </c>
       <c r="T5">
-        <v>0.0009373414779914169</v>
+        <v>0.000511575912358256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.757538</v>
       </c>
       <c r="I6">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J6">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N6">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O6">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P6">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q6">
-        <v>3.967628629647556</v>
+        <v>3.363577675877334</v>
       </c>
       <c r="R6">
-        <v>35.708657666828</v>
+        <v>30.27219908289601</v>
       </c>
       <c r="S6">
-        <v>0.002953842853067155</v>
+        <v>0.001583421477849895</v>
       </c>
       <c r="T6">
-        <v>0.002953842853067155</v>
+        <v>0.001583421477849895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.757538</v>
       </c>
       <c r="I7">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J7">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.826363</v>
       </c>
       <c r="O7">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P7">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q7">
         <v>1.180018486032667</v>
@@ -883,10 +883,10 @@
         <v>10.620166374294</v>
       </c>
       <c r="S7">
-        <v>0.000878506911007027</v>
+        <v>0.0005554997669428526</v>
       </c>
       <c r="T7">
-        <v>0.0008785069110070269</v>
+        <v>0.0005554997669428526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.757538</v>
       </c>
       <c r="I8">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J8">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N8">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O8">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P8">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q8">
-        <v>26.59423947517267</v>
+        <v>44.33885446155001</v>
       </c>
       <c r="R8">
-        <v>239.348155276554</v>
+        <v>399.0496901539501</v>
       </c>
       <c r="S8">
-        <v>0.01979903149692547</v>
+        <v>0.02087274361498625</v>
       </c>
       <c r="T8">
-        <v>0.01979903149692547</v>
+        <v>0.02087274361498625</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.757538</v>
       </c>
       <c r="I9">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J9">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N9">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O9">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P9">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q9">
-        <v>1.806282334442</v>
+        <v>1.500437946436223</v>
       </c>
       <c r="R9">
-        <v>16.256541009978</v>
+        <v>13.503941517926</v>
       </c>
       <c r="S9">
-        <v>0.001344751402473601</v>
+        <v>0.0007063388747067986</v>
       </c>
       <c r="T9">
-        <v>0.0013447514024736</v>
+        <v>0.0007063388747067985</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H10">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I10">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J10">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N10">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O10">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P10">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q10">
-        <v>7.568827362788221</v>
+        <v>6.036472809202666</v>
       </c>
       <c r="R10">
-        <v>68.119446265094</v>
+        <v>54.328255282824</v>
       </c>
       <c r="S10">
-        <v>0.005634883881170374</v>
+        <v>0.002841700599066818</v>
       </c>
       <c r="T10">
-        <v>0.005634883881170374</v>
+        <v>0.002841700599066817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H11">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I11">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J11">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.826363</v>
       </c>
       <c r="O11">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P11">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q11">
-        <v>2.251056497309667</v>
+        <v>2.117730045712333</v>
       </c>
       <c r="R11">
-        <v>20.259508475787</v>
+        <v>19.059570411411</v>
       </c>
       <c r="S11">
-        <v>0.001675879414908647</v>
+        <v>0.0009969323029813207</v>
       </c>
       <c r="T11">
-        <v>0.001675879414908647</v>
+        <v>0.0009969323029813204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H12">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I12">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J12">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N12">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O12">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P12">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q12">
-        <v>50.73237095027966</v>
+        <v>79.57309601257501</v>
       </c>
       <c r="R12">
-        <v>456.591338552517</v>
+        <v>716.1578641131749</v>
       </c>
       <c r="S12">
-        <v>0.037769525663481</v>
+        <v>0.03745944390966344</v>
       </c>
       <c r="T12">
-        <v>0.037769525663481</v>
+        <v>0.03745944390966343</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H13">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I13">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J13">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N13">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O13">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P13">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q13">
-        <v>3.445745666741</v>
+        <v>2.692773510335444</v>
       </c>
       <c r="R13">
-        <v>31.011711000669</v>
+        <v>24.234961593019</v>
       </c>
       <c r="S13">
-        <v>0.002565308440193948</v>
+        <v>0.001267636969358306</v>
       </c>
       <c r="T13">
-        <v>0.002565308440193948</v>
+        <v>0.001267636969358306</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H14">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I14">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J14">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N14">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O14">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P14">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q14">
-        <v>144.5547648048127</v>
+        <v>129.9792093054454</v>
       </c>
       <c r="R14">
-        <v>1300.992883243314</v>
+        <v>1169.812883749008</v>
       </c>
       <c r="S14">
-        <v>0.1076189580105508</v>
+        <v>0.06118838080185154</v>
       </c>
       <c r="T14">
-        <v>0.1076189580105508</v>
+        <v>0.06118838080185154</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H15">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I15">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J15">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.826363</v>
       </c>
       <c r="O15">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P15">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q15">
-        <v>42.99225321623301</v>
+        <v>45.59962175998468</v>
       </c>
       <c r="R15">
-        <v>386.930278946097</v>
+        <v>410.3965958398621</v>
       </c>
       <c r="S15">
-        <v>0.03200711854710656</v>
+        <v>0.02146625630037162</v>
       </c>
       <c r="T15">
-        <v>0.03200711854710656</v>
+        <v>0.02146625630037162</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H16">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I16">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J16">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N16">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O16">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P16">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q16">
-        <v>968.922344135303</v>
+        <v>1713.39264312315</v>
       </c>
       <c r="R16">
-        <v>8720.301097217727</v>
+        <v>15420.53378810835</v>
       </c>
       <c r="S16">
-        <v>0.7213488480284947</v>
+        <v>0.8065883926416383</v>
       </c>
       <c r="T16">
-        <v>0.7213488480284945</v>
+        <v>0.8065883926416382</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H17">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I17">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J17">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N17">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O17">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P17">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q17">
-        <v>65.80926351707102</v>
+        <v>57.9816364249109</v>
       </c>
       <c r="R17">
-        <v>592.2833716536391</v>
+        <v>521.8347278241981</v>
       </c>
       <c r="S17">
-        <v>0.04899405686635066</v>
+        <v>0.02729515334059908</v>
       </c>
       <c r="T17">
-        <v>0.04899405686635065</v>
+        <v>0.02729515334059908</v>
       </c>
     </row>
   </sheetData>
